--- a/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D8627-0ADA-4DB9-A154-162EC4D0893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09124C-94E1-4AEE-B3C5-15324903F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>InformacionBase</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -1091,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121986A6-D44D-4CDF-A74A-1517A7A7562F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <f t="shared" ref="C3:C9" si="0">B3</f>
         <v>NIT</v>
       </c>
     </row>
@@ -1171,6 +1180,42 @@
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NIF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Pasaporte</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TI</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09124C-94E1-4AEE-B3C5-15324903F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0A09124C-94E1-4AEE-B3C5-15324903F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1386692-BAE9-43FC-969C-514842A766B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>TI</t>
+  </si>
+  <si>
+    <t>Nathaly perez Zapata</t>
+  </si>
+  <si>
+    <t>nathaly801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilo Saldarriaga </t>
+  </si>
+  <si>
+    <t>salda2212</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -296,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,17 +336,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>391962</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>153033</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448801</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7A8B00-15C7-DB08-93CE-CD1979F762DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2664235-2570-477D-BE63-160BDCDF7367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -350,7 +363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10297962" cy="4534533"/>
+          <a:ext cx="8068801" cy="3991532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,17 +708,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
-  <dimension ref="A1"/>
+  <dimension ref="N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -862,11 +879,11 @@
         <v>NIT</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>Administrador!E2</f>
+        <f>Administrador!F2</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
       <c r="F2" s="11" t="str">
-        <f>Trabajador!E2&amp;"-"&amp;Trabajador!E3</f>
+        <f>Trabajador!F2&amp;"-"&amp;Trabajador!F3</f>
         <v>Jhonatan Arley Gómez -Jhonatan12353-Cristian David Ospina Ospina-Cristian123</v>
       </c>
       <c r="G2" s="4" t="str">
@@ -889,11 +906,11 @@
         <v>NIT</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>Administrador!E2</f>
+        <f>Administrador!F2</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>Trabajador!E4</f>
+        <f>Trabajador!F4</f>
         <v>Luis Ospina-LuisOs432</v>
       </c>
       <c r="G3" s="4" t="str">
@@ -916,11 +933,11 @@
         <v>NIT</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>Administrador!E2</f>
+        <f>Administrador!F2</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>Trabajador!E5</f>
+        <f>Trabajador!F5</f>
         <v>Juan Pablo Rendon Gómez-JPR3214</v>
       </c>
       <c r="G4" s="4" t="str">
@@ -935,20 +952,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A0EA0F-C535-46B8-908C-285392149FF0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -961,11 +978,14 @@
       <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -978,12 +998,16 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="1" t="str">
+        <f>Institucion!G2</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>B2&amp;"-"&amp;D2</f>
         <v>Jhonatan Arley Gómez -Jhonatan12353</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -996,12 +1020,16 @@
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E5" si="0">B3&amp;"-"&amp;D3</f>
+      <c r="E3" s="1" t="str">
+        <f>Institucion!G3</f>
+        <v>811912382-NIT-SpaManitas</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F5" si="0">B3&amp;"-"&amp;D3</f>
         <v>Cristian David Ospina Ospina-Cristian123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1014,12 +1042,16 @@
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="1" t="str">
+        <f>Institucion!G4</f>
+        <v>830411223-NIT-SpaOriente</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Luis Ospina-LuisOs432</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1032,7 +1064,11 @@
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="1" t="str">
+        <f>Institucion!G2</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Juan Pablo Rendon Gómez-JPR3214</v>
       </c>
@@ -1044,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1ED5A-B972-4A71-A4D5-C7E705C9EC46}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,10 +1091,11 @@
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1071,11 +1108,14 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1088,9 +1128,57 @@
       <c r="D2" s="1">
         <v>1036416237</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="1" t="str">
+        <f>Institucion!G2</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1037310292</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>Institucion!G3</f>
+        <v>811912382-NIT-SpaManitas</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F4" si="0">B3&amp;"-"&amp;C3</f>
+        <v>Nathaly perez Zapata-nathaly801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10384182321</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>Institucion!G4</f>
+        <v>830411223-NIT-SpaOriente</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Camilo Saldarriaga -salda2212</v>
       </c>
     </row>
   </sheetData>
@@ -1102,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121986A6-D44D-4CDF-A74A-1517A7A7562F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0A09124C-94E1-4AEE-B3C5-15324903F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1386692-BAE9-43FC-969C-514842A766B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262A586-B044-41AD-B54C-C827BA0808F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>RUC</t>
-  </si>
-  <si>
-    <t>SpaOriente</t>
   </si>
   <si>
     <t xml:space="preserve">Objeto de domino que contiene la informacion de los tipos de identificacion tributarios </t>
@@ -710,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +730,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +758,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -770,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -778,42 +775,42 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -824,10 +821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +834,7 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,10 +852,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -875,16 +872,16 @@
         <v>900811919</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>TipoIdentificacion!C3</f>
+        <f>TipoIdentificacion!B3</f>
         <v>NIT</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>Administrador!F2</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+        <f>Administrador!B2&amp;"-"&amp;Administrador!B3</f>
+        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
       </c>
       <c r="F2" s="11" t="str">
-        <f>Trabajador!F2&amp;"-"&amp;Trabajador!F3</f>
-        <v>Jhonatan Arley Gómez -Jhonatan12353-Cristian David Ospina Ospina-Cristian123</v>
+        <f>Trabajador!B2&amp;"-"&amp;Trabajador!B3&amp;"-"&amp;Trabajador!B4</f>
+        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
@@ -902,47 +899,20 @@
         <v>811912382</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>TipoIdentificacion!C3</f>
+        <f>TipoIdentificacion!B3</f>
         <v>NIT</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>Administrador!F2</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+        <f>Administrador!B4</f>
+        <v xml:space="preserve">Camilo Saldarriaga </v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>Trabajador!F4</f>
-        <v>Luis Ospina-LuisOs432</v>
+        <f>Trabajador!B5</f>
+        <v>Juan Pablo Rendon Gómez</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G4" si="0">C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
+        <f t="shared" ref="G3" si="0">C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
         <v>811912382-NIT-SpaManitas</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>830411223</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>TipoIdentificacion!C3</f>
-        <v>NIT</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>Administrador!F2</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f>Trabajador!F5</f>
-        <v>Juan Pablo Rendon Gómez-JPR3214</v>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>830411223-NIT-SpaOriente</v>
       </c>
     </row>
   </sheetData>
@@ -952,123 +922,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A0EA0F-C535-46B8-908C-285392149FF0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1038419180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>Institucion!G2</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="F2" s="4" t="str">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="str">
         <f>B2&amp;"-"&amp;D2</f>
         <v>Jhonatan Arley Gómez -Jhonatan12353</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>1038419181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>Institucion!G3</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F5" si="0">B3&amp;"-"&amp;D3</f>
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E5" si="0">B3&amp;"-"&amp;D3</f>
         <v>Cristian David Ospina Ospina-Cristian123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>1038419182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>Institucion!G4</f>
-        <v>830411223-NIT-SpaOriente</v>
-      </c>
-      <c r="F4" s="4" t="str">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Luis Ospina-LuisOs432</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1038419183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>Institucion!G2</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="F5" s="4" t="str">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Juan Pablo Rendon Gómez-JPR3214</v>
       </c>
@@ -1080,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D1ED5A-B972-4A71-A4D5-C7E705C9EC46}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,92 +1042,76 @@
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="1">
         <v>1036416237</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>Institucion!G2</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="F2" s="4" t="str">
+      <c r="E2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>1037310292</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>Institucion!G3</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F4" si="0">B3&amp;"-"&amp;C3</f>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;C3</f>
         <v>Nathaly perez Zapata-nathaly801</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>10384182321</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>Institucion!G4</f>
-        <v>830411223-NIT-SpaOriente</v>
-      </c>
-      <c r="F4" s="4" t="str">
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Camilo Saldarriaga -salda2212</v>
       </c>
@@ -1188,122 +1123,84 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121986A6-D44D-4CDF-A74A-1517A7A7562F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f>B2</f>
-        <v>RUT</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C9" si="0">B3</f>
-        <v>NIT</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RNE</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>RUC</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>NIF</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>CC</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Pasaporte</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>TI</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0262A586-B044-41AD-B54C-C827BA0808F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0262A586-B044-41AD-B54C-C827BA0808F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D01E03-EF8C-457F-B51D-DA53BED80B84}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -333,17 +333,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>448801</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>181532</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496326</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2664235-2570-477D-BE63-160BDCDF7367}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B604C-91F4-70CC-84F7-57BE67E54B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,7 +360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8068801" cy="3991532"/>
+          <a:ext cx="7354326" cy="3410426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,7 +708,7 @@
   <dimension ref="N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Instituciones - Muestreo Datos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0262A586-B044-41AD-B54C-C827BA0808F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D01E03-EF8C-457F-B51D-DA53BED80B84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BC4B9-17AD-47E4-BA45-9848D0FBFC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Institucion" sheetId="5" r:id="rId3"/>
+    <sheet name="Spa" sheetId="5" r:id="rId3"/>
     <sheet name="Trabajador" sheetId="8" r:id="rId4"/>
     <sheet name="Administrador" sheetId="7" r:id="rId5"/>
     <sheet name="TipoIdentificacion" sheetId="6" r:id="rId6"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>TipoIdentificacion</t>
-  </si>
-  <si>
-    <t>SpaManitas</t>
   </si>
   <si>
     <t>NIT</t>
@@ -208,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +225,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,10 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -306,8 +312,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -333,17 +342,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>496326</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171926</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30068</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954B604C-91F4-70CC-84F7-57BE67E54B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE11247-1D5F-1AFC-7883-E8FA6E19EFD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,7 +369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7354326" cy="3410426"/>
+          <a:ext cx="10698068" cy="4363059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +767,7 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -767,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -775,42 +784,42 @@
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -821,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,17 +861,17 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -871,51 +880,61 @@
       <c r="C2" s="1">
         <v>900811919</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>TipoIdentificacion!B3</f>
+      <c r="D2" s="13" t="str">
+        <f>TipoIdentificacion!$B$3</f>
         <v>NIT</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>Administrador!B2&amp;"-"&amp;Administrador!B3</f>
-        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
-      </c>
-      <c r="F2" s="11" t="str">
-        <f>Trabajador!B2&amp;"-"&amp;Trabajador!B3&amp;"-"&amp;Trabajador!B4</f>
-        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>TipoIdentificacion!$B$3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>900811919</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>TipoIdentificacion!$B$3</f>
+        <v>NIT</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="11" t="str">
+        <f>Trabajador!B2</f>
+        <v xml:space="preserve">Jhonatan Arley Gómez </v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>C4&amp;"-"&amp;D4&amp;"-"&amp;B4</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>811912382</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>TipoIdentificacion!B3</f>
-        <v>NIT</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>Administrador!B4</f>
-        <v xml:space="preserve">Camilo Saldarriaga </v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>Trabajador!B5</f>
-        <v>Juan Pablo Rendon Gómez</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3" si="0">C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" location="TipoIdentificacion!B3" display="TipoIdentificacion!B3" xr:uid="{AA45D322-CDFD-450B-A280-301857D7D0CA}"/>
+    <hyperlink ref="D2:D3" location="TipoIdentificacion!B3" display="TipoIdentificacion!B3" xr:uid="{5E2F22C4-F2B2-4969-A9AA-AC0D85C3B857}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -940,13 +959,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -957,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>1038419180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>B2&amp;"-"&amp;D2</f>
@@ -975,13 +994,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>1038419181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E5" si="0">B3&amp;"-"&amp;D3</f>
@@ -993,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>1038419182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1011,13 +1030,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1038419183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1050,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -1067,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>1036416237</v>
@@ -1085,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="1">
         <v>1037310292</v>
@@ -1103,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>10384182321</v>
@@ -1144,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
